--- a/Requisitos de sistema.xlsx
+++ b/Requisitos de sistema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex\Documents\GitHub\Proyecto_Hipermedial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristian\Documents\GitHub\Proyecto_Hipermedial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691F3AB5-218F-4C30-AF70-EBD95203D9CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922FA4EF-6073-4819-958E-3EE21C75DA6F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla de matriz requisitos" sheetId="1" r:id="rId1"/>
@@ -361,9 +361,6 @@
     <t xml:space="preserve">Agregado </t>
   </si>
   <si>
-    <t>Generar advertencias en distintas situasiones</t>
-  </si>
-  <si>
     <t>Validacion de tarjetas de credito</t>
   </si>
   <si>
@@ -422,6 +419,9 @@
   </si>
   <si>
     <t>Cuando se registra un nuevo usuario, validar que la contraseña ingresada sea la que el usuario desea.</t>
+  </si>
+  <si>
+    <t>Generar advertencias en distintas situaciones</t>
   </si>
 </sst>
 </file>
@@ -521,7 +521,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -843,25 +843,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.68359375" style="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.5703125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.42578125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="26.578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="62.578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.68359375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.68359375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.41796875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.41796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -884,10 +884,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -910,10 +910,10 @@
         <v>10</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -936,10 +936,10 @@
         <v>27</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -962,10 +962,10 @@
         <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -988,10 +988,10 @@
         <v>27</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -1014,10 +1014,10 @@
         <v>10</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
@@ -1040,10 +1040,10 @@
         <v>27</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -1066,10 +1066,10 @@
         <v>10</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
@@ -1092,10 +1092,10 @@
         <v>27</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
@@ -1118,10 +1118,10 @@
         <v>10</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
@@ -1144,10 +1144,10 @@
         <v>10</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -1170,10 +1170,10 @@
         <v>10</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
@@ -1196,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1222,10 +1222,10 @@
         <v>10</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>52</v>
       </c>
@@ -1248,10 +1248,10 @@
         <v>27</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -1274,10 +1274,10 @@
         <v>10</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>54</v>
       </c>
@@ -1300,10 +1300,10 @@
         <v>10</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>55</v>
       </c>
@@ -1326,10 +1326,10 @@
         <v>10</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>56</v>
       </c>
@@ -1352,10 +1352,10 @@
         <v>27</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
@@ -1378,10 +1378,10 @@
         <v>27</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>58</v>
       </c>
@@ -1404,10 +1404,10 @@
         <v>27</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>59</v>
       </c>
@@ -1430,15 +1430,15 @@
         <v>10</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>94</v>
@@ -1450,16 +1450,16 @@
         <v>10</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
@@ -1482,15 +1482,15 @@
         <v>27</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>98</v>
@@ -1508,10 +1508,10 @@
         <v>10</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
         <v>63</v>
       </c>
@@ -1534,15 +1534,15 @@
         <v>10</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>98</v>
@@ -1560,10 +1560,10 @@
         <v>10</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
         <v>65</v>
       </c>
@@ -1586,15 +1586,15 @@
         <v>10</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>98</v>
@@ -1612,10 +1612,10 @@
         <v>10</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>110</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>27</v>
@@ -1638,21 +1638,21 @@
         <v>10</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>27</v>
@@ -1664,21 +1664,21 @@
         <v>27</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>10</v>
@@ -1690,21 +1690,21 @@
         <v>26</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>27</v>
@@ -1716,21 +1716,21 @@
         <v>26</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>27</v>
@@ -1742,21 +1742,21 @@
         <v>26</v>
       </c>
       <c r="H34" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C35" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>26</v>
@@ -1768,7 +1768,7 @@
         <v>10</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
